--- a/updated_categories_reviews_corrected.xlsx
+++ b/updated_categories_reviews_corrected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avrahamma\Documents\School\ML_Course\Project_4\stramlit_app\streamlit_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4675B5C-E459-409B-840D-421A16BF0B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ED7E9A-A3EB-49F9-A2A0-D97CED0DAE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="102">
   <si>
     <t>product_name</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>num_of_rates</t>
+  </si>
+  <si>
+    <t>negative_rates_past_30_days</t>
   </si>
 </sst>
 </file>
@@ -677,2853 +680,3355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E167"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="H177" sqref="H177"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>100</v>
-      </c>
       <c r="D1" t="s">
         <v>99</v>
       </c>
       <c r="E1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="C2">
+      <c r="D2">
+        <v>1.2466666337540455</v>
+      </c>
+      <c r="E2">
         <v>88</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="C3">
+      <c r="D3">
+        <v>1.3950912095951189</v>
+      </c>
+      <c r="E3">
         <v>44</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4">
+      <c r="D4">
+        <v>1.063530470869869</v>
+      </c>
+      <c r="E4">
         <v>108</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
-      <c r="C5">
+      <c r="D5">
+        <v>1.9866421308233884</v>
+      </c>
+      <c r="E5">
         <v>112</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
       </c>
-      <c r="C6">
+      <c r="D6">
+        <v>1.9702855735625544</v>
+      </c>
+      <c r="E6">
         <v>25</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="C7">
+      <c r="D7">
+        <v>1.917668370752462</v>
+      </c>
+      <c r="E7">
         <v>128</v>
       </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
       </c>
-      <c r="C8">
+      <c r="D8">
+        <v>3.1626696471587197</v>
+      </c>
+      <c r="E8">
         <v>25</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
       </c>
-      <c r="C9">
+      <c r="D9">
+        <v>3.6740420466703783</v>
+      </c>
+      <c r="E9">
         <v>47</v>
       </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
       </c>
-      <c r="C10">
+      <c r="D10">
+        <v>2.8068160545171654</v>
+      </c>
+      <c r="E10">
         <v>49</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
       </c>
-      <c r="C11">
+      <c r="D11">
+        <v>3.278074685371593</v>
+      </c>
+      <c r="E11">
         <v>74</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
       </c>
-      <c r="C12">
+      <c r="D12">
+        <v>2.6592138551535127</v>
+      </c>
+      <c r="E12">
         <v>21</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
       </c>
-      <c r="C13">
+      <c r="D13">
+        <v>1.5651422536683901</v>
+      </c>
+      <c r="E13">
         <v>112</v>
       </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
       </c>
-      <c r="C14">
+      <c r="D14">
+        <v>2.7117868116121508</v>
+      </c>
+      <c r="E14">
         <v>32</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
       </c>
-      <c r="C15">
+      <c r="D15">
+        <v>3.156495597799263</v>
+      </c>
+      <c r="E15">
         <v>130</v>
       </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>57</v>
       </c>
-      <c r="C16">
+      <c r="D16">
+        <v>1.8633932806791937</v>
+      </c>
+      <c r="E16">
         <v>40</v>
       </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="C17">
+      <c r="D17">
+        <v>3.9295192575004476</v>
+      </c>
+      <c r="E17">
         <v>107</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
       </c>
-      <c r="C18">
+      <c r="D18">
+        <v>3.9624932775911264</v>
+      </c>
+      <c r="E18">
         <v>89</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="C19">
+      <c r="D19">
+        <v>1.8106470707857358</v>
+      </c>
+      <c r="E19">
         <v>119</v>
       </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>53</v>
       </c>
-      <c r="C20">
+      <c r="D20">
+        <v>1.980357277107794</v>
+      </c>
+      <c r="E20">
         <v>111</v>
       </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
       </c>
-      <c r="C21">
+      <c r="D21">
+        <v>1.3976503733788217</v>
+      </c>
+      <c r="E21">
         <v>88</v>
       </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>56</v>
       </c>
-      <c r="C22">
+      <c r="D22">
+        <v>1.7509511625044829</v>
+      </c>
+      <c r="E22">
         <v>74</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>55</v>
       </c>
-      <c r="C23">
+      <c r="D23">
+        <v>1.4262965217159083</v>
+      </c>
+      <c r="E23">
         <v>63</v>
       </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="C24">
+      <c r="D24">
+        <v>2.9469744879483195</v>
+      </c>
+      <c r="E24">
         <v>15</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>55</v>
       </c>
-      <c r="C25">
+      <c r="D25">
+        <v>1.429564867355172</v>
+      </c>
+      <c r="E25">
         <v>99</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>59</v>
       </c>
-      <c r="C26">
+      <c r="D26">
+        <v>1.0220752210874704</v>
+      </c>
+      <c r="E26">
         <v>119</v>
       </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>60</v>
       </c>
-      <c r="C27">
+      <c r="D27">
+        <v>3.1963603902135858</v>
+      </c>
+      <c r="E27">
         <v>34</v>
       </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28">
+      <c r="D28">
+        <v>3.9585823538455571</v>
+      </c>
+      <c r="E28">
         <v>60</v>
       </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>52</v>
       </c>
-      <c r="C29">
+      <c r="D29">
+        <v>3.6713138284925977</v>
+      </c>
+      <c r="E29">
         <v>55</v>
       </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="F29">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>53</v>
       </c>
-      <c r="C30">
+      <c r="D30">
+        <v>3.4604724438536016</v>
+      </c>
+      <c r="E30">
         <v>118</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="F30">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
-      <c r="C31">
+      <c r="D31">
+        <v>3.7795377473904845</v>
+      </c>
+      <c r="E31">
         <v>29</v>
       </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>53</v>
       </c>
-      <c r="C32">
+      <c r="D32">
+        <v>3.0291718683032114</v>
+      </c>
+      <c r="E32">
         <v>130</v>
       </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F32">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>57</v>
       </c>
-      <c r="C33">
+      <c r="D33">
+        <v>1.0431156217779867</v>
+      </c>
+      <c r="E33">
         <v>56</v>
       </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F33">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>55</v>
       </c>
-      <c r="C34">
+      <c r="D34">
+        <v>3.0245489855142615</v>
+      </c>
+      <c r="E34">
         <v>15</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>54</v>
       </c>
-      <c r="C35">
+      <c r="D35">
+        <v>3.6922580594412375</v>
+      </c>
+      <c r="E35">
         <v>91</v>
       </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F35">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
         <v>55</v>
       </c>
-      <c r="C36">
+      <c r="D36">
+        <v>1.5871192940709855</v>
+      </c>
+      <c r="E36">
         <v>56</v>
       </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="F36">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
         <v>57</v>
       </c>
-      <c r="C37">
+      <c r="D37">
+        <v>3.7074284119095604</v>
+      </c>
+      <c r="E37">
         <v>43</v>
       </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
       <c r="B38" t="s">
         <v>58</v>
       </c>
-      <c r="C38">
+      <c r="D38">
+        <v>3.2941299615146566</v>
+      </c>
+      <c r="E38">
         <v>78</v>
       </c>
-      <c r="D38">
-        <v>5</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F38">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>59</v>
       </c>
-      <c r="C39">
+      <c r="D39">
+        <v>3.5644240566252288</v>
+      </c>
+      <c r="E39">
         <v>50</v>
       </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F39">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>60</v>
       </c>
-      <c r="C40">
+      <c r="D40">
+        <v>1.7541072381091958</v>
+      </c>
+      <c r="E40">
         <v>71</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="F40">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>53</v>
       </c>
-      <c r="C41">
+      <c r="D41">
+        <v>1.9446220008038413</v>
+      </c>
+      <c r="E41">
         <v>98</v>
       </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="F41">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>57</v>
       </c>
-      <c r="C42">
+      <c r="D42">
+        <v>2.7510670168354983</v>
+      </c>
+      <c r="E42">
         <v>60</v>
       </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="F42">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>53</v>
       </c>
-      <c r="C43">
+      <c r="D43">
+        <v>1.2622459887224886</v>
+      </c>
+      <c r="E43">
         <v>35</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="F43">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>56</v>
       </c>
-      <c r="C44">
+      <c r="D44">
+        <v>1.9915557709022991</v>
+      </c>
+      <c r="E44">
         <v>16</v>
       </c>
-      <c r="D44">
+      <c r="F44">
         <v>4</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>53</v>
       </c>
-      <c r="C45">
+      <c r="D45">
+        <v>1.6883385459586331</v>
+      </c>
+      <c r="E45">
         <v>26</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>21</v>
       </c>
       <c r="B46" t="s">
         <v>53</v>
       </c>
-      <c r="C46">
+      <c r="D46">
+        <v>3.5775564839084986</v>
+      </c>
+      <c r="E46">
         <v>109</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="F46">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>55</v>
       </c>
-      <c r="C47">
+      <c r="D47">
+        <v>3.30069720749152</v>
+      </c>
+      <c r="E47">
         <v>74</v>
       </c>
-      <c r="D47">
-        <v>4</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="F47">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>10</v>
       </c>
       <c r="B48" t="s">
         <v>56</v>
       </c>
-      <c r="C48">
+      <c r="D48">
+        <v>2.1907394700869256</v>
+      </c>
+      <c r="E48">
         <v>63</v>
       </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="F48">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>55</v>
       </c>
-      <c r="C49">
+      <c r="D49">
+        <v>1.577784556472229</v>
+      </c>
+      <c r="E49">
         <v>16</v>
       </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>25</v>
       </c>
       <c r="B50" t="s">
         <v>57</v>
       </c>
-      <c r="C50">
+      <c r="D50">
+        <v>3.6830696616474849</v>
+      </c>
+      <c r="E50">
         <v>43</v>
       </c>
-      <c r="D50">
-        <v>4</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
       <c r="B51" t="s">
         <v>53</v>
       </c>
-      <c r="C51">
+      <c r="D51">
+        <v>1.837601587797062</v>
+      </c>
+      <c r="E51">
         <v>55</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="F51">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
       <c r="B52" t="s">
         <v>55</v>
       </c>
-      <c r="C52">
+      <c r="D52">
+        <v>1.5653929574177705</v>
+      </c>
+      <c r="E52">
         <v>73</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="F52">
+        <v>15</v>
+      </c>
+      <c r="G52" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>28</v>
       </c>
       <c r="B53" t="s">
         <v>60</v>
       </c>
-      <c r="C53">
+      <c r="D53">
+        <v>2.5630514244516278</v>
+      </c>
+      <c r="E53">
         <v>110</v>
       </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="F53">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>29</v>
       </c>
       <c r="B54" t="s">
         <v>53</v>
       </c>
-      <c r="C54">
+      <c r="D54">
+        <v>2.1321302289206479</v>
+      </c>
+      <c r="E54">
         <v>80</v>
       </c>
-      <c r="D54">
-        <v>4</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="F54">
+        <v>20</v>
+      </c>
+      <c r="G54" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>50</v>
       </c>
       <c r="B55" t="s">
         <v>52</v>
       </c>
-      <c r="C55">
+      <c r="D55">
+        <v>1.96535816699605</v>
+      </c>
+      <c r="E55">
         <v>33</v>
       </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="F55">
+        <v>8</v>
+      </c>
+      <c r="G55" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>31</v>
       </c>
       <c r="B56" t="s">
         <v>53</v>
       </c>
-      <c r="C56">
+      <c r="D56">
+        <v>3.7118878049829274</v>
+      </c>
+      <c r="E56">
         <v>18</v>
       </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>51</v>
       </c>
       <c r="B57" t="s">
         <v>54</v>
       </c>
-      <c r="C57">
+      <c r="D57">
+        <v>3.2876657554971276</v>
+      </c>
+      <c r="E57">
         <v>50</v>
       </c>
-      <c r="D57">
-        <v>3</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>33</v>
       </c>
       <c r="B58" t="s">
         <v>53</v>
       </c>
-      <c r="C58">
+      <c r="D58">
+        <v>1.5111036173825332</v>
+      </c>
+      <c r="E58">
         <v>21</v>
       </c>
-      <c r="D58">
+      <c r="F58">
         <v>4</v>
       </c>
-      <c r="E58" t="s">
+      <c r="G58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>34</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
       </c>
-      <c r="C59">
+      <c r="D59">
+        <v>3.481278191515055</v>
+      </c>
+      <c r="E59">
         <v>96</v>
       </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="F59">
+        <v>22</v>
+      </c>
+      <c r="G59" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>35</v>
       </c>
       <c r="B60" t="s">
         <v>55</v>
       </c>
-      <c r="C60">
+      <c r="D60">
+        <v>3.5072238127498983</v>
+      </c>
+      <c r="E60">
         <v>58</v>
       </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="F60">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>23</v>
       </c>
       <c r="B61" t="s">
         <v>56</v>
       </c>
-      <c r="C61">
+      <c r="D61">
+        <v>1.9047358284212581</v>
+      </c>
+      <c r="E61">
         <v>96</v>
       </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="F61">
+        <v>20</v>
+      </c>
+      <c r="G61" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>37</v>
       </c>
       <c r="B62" t="s">
         <v>55</v>
       </c>
-      <c r="C62">
+      <c r="D62">
+        <v>3.0157686896488149</v>
+      </c>
+      <c r="E62">
         <v>120</v>
       </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="F62">
+        <v>30</v>
+      </c>
+      <c r="G62" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
       <c r="B63" t="s">
         <v>57</v>
       </c>
-      <c r="C63">
+      <c r="D63">
+        <v>1.8418559213661816</v>
+      </c>
+      <c r="E63">
         <v>36</v>
       </c>
-      <c r="D63">
-        <v>3</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="F63">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>13</v>
       </c>
       <c r="B64" t="s">
         <v>58</v>
       </c>
-      <c r="C64">
+      <c r="D64">
+        <v>1.5701530661812131</v>
+      </c>
+      <c r="E64">
         <v>111</v>
       </c>
-      <c r="D64">
-        <v>4</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="F64">
+        <v>27</v>
+      </c>
+      <c r="G64" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>39</v>
       </c>
       <c r="B65" t="s">
         <v>59</v>
       </c>
-      <c r="C65">
+      <c r="D65">
+        <v>3.0184084313859199</v>
+      </c>
+      <c r="E65">
         <v>123</v>
       </c>
-      <c r="D65">
-        <v>3</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="F65">
+        <v>31</v>
+      </c>
+      <c r="G65" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>40</v>
       </c>
       <c r="B66" t="s">
         <v>60</v>
       </c>
-      <c r="C66">
+      <c r="D66">
+        <v>3.7535268900153231</v>
+      </c>
+      <c r="E66">
         <v>88</v>
       </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="F66">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>41</v>
       </c>
       <c r="B67" t="s">
         <v>53</v>
       </c>
-      <c r="C67">
+      <c r="D67">
+        <v>1.3467248615382847</v>
+      </c>
+      <c r="E67">
         <v>27</v>
       </c>
-      <c r="D67">
-        <v>3</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="F67">
+        <v>6</v>
+      </c>
+      <c r="G67" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>42</v>
       </c>
       <c r="B68" t="s">
         <v>57</v>
       </c>
-      <c r="C68">
+      <c r="D68">
+        <v>1.9155693756703172</v>
+      </c>
+      <c r="E68">
         <v>14</v>
       </c>
-      <c r="D68">
-        <v>2</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>43</v>
       </c>
       <c r="B69" t="s">
         <v>53</v>
       </c>
-      <c r="C69">
+      <c r="D69">
+        <v>1.2040007971707096</v>
+      </c>
+      <c r="E69">
         <v>75</v>
       </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="F69">
+        <v>17</v>
+      </c>
+      <c r="G69" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>32</v>
       </c>
       <c r="B70" t="s">
         <v>56</v>
       </c>
-      <c r="C70">
+      <c r="D70">
+        <v>1.408683876388662</v>
+      </c>
+      <c r="E70">
         <v>93</v>
       </c>
-      <c r="D70">
-        <v>2</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="F70">
+        <v>23</v>
+      </c>
+      <c r="G70" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>45</v>
       </c>
       <c r="B71" t="s">
         <v>53</v>
       </c>
-      <c r="C71">
+      <c r="D71">
+        <v>2.7427482002095007</v>
+      </c>
+      <c r="E71">
         <v>84</v>
       </c>
-      <c r="D71">
-        <v>3</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="F71">
+        <v>19</v>
+      </c>
+      <c r="G71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>21</v>
       </c>
       <c r="B72" t="s">
         <v>53</v>
       </c>
-      <c r="C72">
+      <c r="D72">
+        <v>2.7090905399280838</v>
+      </c>
+      <c r="E72">
         <v>128</v>
       </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="F72">
+        <v>31</v>
+      </c>
+      <c r="G72" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>46</v>
       </c>
       <c r="B73" t="s">
         <v>55</v>
       </c>
-      <c r="C73">
+      <c r="D73">
+        <v>1.8820485961375881</v>
+      </c>
+      <c r="E73">
         <v>105</v>
       </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="F73">
+        <v>23</v>
+      </c>
+      <c r="G73" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>36</v>
       </c>
       <c r="B74" t="s">
         <v>54</v>
       </c>
-      <c r="C74">
+      <c r="D74">
+        <v>1.2854534473900512</v>
+      </c>
+      <c r="E74">
         <v>54</v>
       </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="F74">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>47</v>
       </c>
       <c r="B75" t="s">
         <v>55</v>
       </c>
-      <c r="C75">
+      <c r="D75">
+        <v>1.6033325088367243</v>
+      </c>
+      <c r="E75">
         <v>15</v>
       </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>25</v>
       </c>
       <c r="B76" t="s">
         <v>57</v>
       </c>
-      <c r="C76">
+      <c r="D76">
+        <v>2.430574804340885</v>
+      </c>
+      <c r="E76">
         <v>65</v>
       </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="F76">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>48</v>
       </c>
       <c r="B77" t="s">
         <v>53</v>
       </c>
-      <c r="C77">
+      <c r="D77">
+        <v>1.1926018840302097</v>
+      </c>
+      <c r="E77">
         <v>37</v>
       </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="F77">
+        <v>8</v>
+      </c>
+      <c r="G77" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>49</v>
       </c>
       <c r="B78" t="s">
         <v>55</v>
       </c>
-      <c r="C78">
+      <c r="D78">
+        <v>2.5354882121616975</v>
+      </c>
+      <c r="E78">
         <v>48</v>
       </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>28</v>
       </c>
       <c r="B79" t="s">
         <v>60</v>
       </c>
-      <c r="C79">
+      <c r="D79">
+        <v>1.0999884172635463</v>
+      </c>
+      <c r="E79">
         <v>128</v>
       </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="F79">
+        <v>31</v>
+      </c>
+      <c r="G79" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>29</v>
       </c>
       <c r="B80" t="s">
         <v>53</v>
       </c>
-      <c r="C80">
+      <c r="D80">
+        <v>3.9520682316397591</v>
+      </c>
+      <c r="E80">
         <v>32</v>
       </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="F80">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>30</v>
       </c>
       <c r="B81" t="s">
         <v>52</v>
       </c>
-      <c r="C81">
+      <c r="D81">
+        <v>3.1394315705791711</v>
+      </c>
+      <c r="E81">
         <v>43</v>
       </c>
-      <c r="D81">
-        <v>3</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>31</v>
       </c>
       <c r="B82" t="s">
         <v>53</v>
       </c>
-      <c r="C82">
+      <c r="D82">
+        <v>2.4155983285293927</v>
+      </c>
+      <c r="E82">
         <v>21</v>
       </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="F82">
+        <v>4</v>
+      </c>
+      <c r="G82" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>51</v>
       </c>
       <c r="B83" t="s">
         <v>54</v>
       </c>
-      <c r="C83">
+      <c r="D83">
+        <v>3.9433368464214222</v>
+      </c>
+      <c r="E83">
         <v>89</v>
       </c>
-      <c r="D83">
-        <v>5</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="F83">
+        <v>20</v>
+      </c>
+      <c r="G83" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>33</v>
       </c>
       <c r="B84" t="s">
         <v>53</v>
       </c>
-      <c r="C84">
+      <c r="D84">
+        <v>1.8460256738145677</v>
+      </c>
+      <c r="E84">
         <v>127</v>
       </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="F84">
+        <v>30</v>
+      </c>
+      <c r="G84" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>34</v>
       </c>
       <c r="B85" t="s">
         <v>57</v>
       </c>
-      <c r="C85">
+      <c r="D85">
+        <v>1.1117179104075325</v>
+      </c>
+      <c r="E85">
         <v>39</v>
       </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="F85">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>35</v>
       </c>
       <c r="B86" t="s">
         <v>55</v>
       </c>
-      <c r="C86">
+      <c r="D86">
+        <v>1.0493770731672023</v>
+      </c>
+      <c r="E86">
         <v>75</v>
       </c>
-      <c r="D86">
-        <v>2</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="F86">
+        <v>17</v>
+      </c>
+      <c r="G86" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>10</v>
       </c>
       <c r="B87" t="s">
         <v>56</v>
       </c>
-      <c r="C87">
+      <c r="D87">
+        <v>1.8465658684467958</v>
+      </c>
+      <c r="E87">
         <v>108</v>
       </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="F87">
+        <v>25</v>
+      </c>
+      <c r="G87" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>37</v>
       </c>
       <c r="B88" t="s">
         <v>55</v>
       </c>
-      <c r="C88">
+      <c r="D88">
+        <v>3.5523866683103362</v>
+      </c>
+      <c r="E88">
         <v>93</v>
       </c>
-      <c r="D88">
-        <v>2</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="F88">
+        <v>23</v>
+      </c>
+      <c r="G88" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>38</v>
       </c>
       <c r="B89" t="s">
         <v>57</v>
       </c>
-      <c r="C89">
+      <c r="D89">
+        <v>2.92340332521868</v>
+      </c>
+      <c r="E89">
         <v>32</v>
       </c>
-      <c r="D89">
-        <v>5</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="F89">
+        <v>8</v>
+      </c>
+      <c r="G89" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>13</v>
       </c>
       <c r="B90" t="s">
         <v>58</v>
       </c>
-      <c r="C90">
+      <c r="D90">
+        <v>3.5434183310435903</v>
+      </c>
+      <c r="E90">
         <v>63</v>
       </c>
-      <c r="D90">
-        <v>2</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="F90">
+        <v>14</v>
+      </c>
+      <c r="G90" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>39</v>
       </c>
       <c r="B91" t="s">
         <v>59</v>
       </c>
-      <c r="C91">
+      <c r="D91">
+        <v>1.9881341028747372</v>
+      </c>
+      <c r="E91">
         <v>42</v>
       </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="F91">
+        <v>9</v>
+      </c>
+      <c r="G91" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>40</v>
       </c>
       <c r="B92" t="s">
         <v>60</v>
       </c>
-      <c r="C92">
+      <c r="D92">
+        <v>3.8185527281654719</v>
+      </c>
+      <c r="E92">
         <v>113</v>
       </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="F92">
+        <v>28</v>
+      </c>
+      <c r="G92" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>41</v>
       </c>
       <c r="B93" t="s">
         <v>53</v>
       </c>
-      <c r="C93">
+      <c r="D93">
+        <v>2.3690565847500169</v>
+      </c>
+      <c r="E93">
         <v>107</v>
       </c>
-      <c r="D93">
-        <v>3</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="F93">
+        <v>22</v>
+      </c>
+      <c r="G93" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>42</v>
       </c>
       <c r="B94" t="s">
         <v>57</v>
       </c>
-      <c r="C94">
+      <c r="D94">
+        <v>2.9775449532149141</v>
+      </c>
+      <c r="E94">
         <v>40</v>
       </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>43</v>
       </c>
       <c r="B95" t="s">
         <v>53</v>
       </c>
-      <c r="C95">
+      <c r="D95">
+        <v>1.730194270292994</v>
+      </c>
+      <c r="E95">
         <v>34</v>
       </c>
-      <c r="D95">
-        <v>2</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="F95">
+        <v>8</v>
+      </c>
+      <c r="G95" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>44</v>
       </c>
       <c r="B96" t="s">
         <v>56</v>
       </c>
-      <c r="C96">
+      <c r="D96">
+        <v>2.0418833035885764</v>
+      </c>
+      <c r="E96">
         <v>71</v>
       </c>
-      <c r="D96">
-        <v>3</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="F96">
+        <v>15</v>
+      </c>
+      <c r="G96" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>45</v>
       </c>
       <c r="B97" t="s">
         <v>53</v>
       </c>
-      <c r="C97">
+      <c r="D97">
+        <v>3.4788779581098206</v>
+      </c>
+      <c r="E97">
         <v>18</v>
       </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="F97">
+        <v>4</v>
+      </c>
+      <c r="G97" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>21</v>
       </c>
       <c r="B98" t="s">
         <v>53</v>
       </c>
-      <c r="C98">
+      <c r="D98">
+        <v>1.418178813446739</v>
+      </c>
+      <c r="E98">
         <v>55</v>
       </c>
-      <c r="D98">
-        <v>3</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="F98">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>46</v>
       </c>
       <c r="B99" t="s">
         <v>55</v>
       </c>
-      <c r="C99">
+      <c r="D99">
+        <v>1.4671925896384135</v>
+      </c>
+      <c r="E99">
         <v>33</v>
       </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="F99">
+        <v>8</v>
+      </c>
+      <c r="G99" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>23</v>
       </c>
       <c r="B100" t="s">
         <v>56</v>
       </c>
-      <c r="C100">
+      <c r="D100">
+        <v>2.2886766590927339</v>
+      </c>
+      <c r="E100">
         <v>23</v>
       </c>
-      <c r="D100">
-        <v>2</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="F100">
+        <v>5</v>
+      </c>
+      <c r="G100" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>47</v>
       </c>
       <c r="B101" t="s">
         <v>55</v>
       </c>
-      <c r="C101">
+      <c r="D101">
+        <v>3.5820588373738822</v>
+      </c>
+      <c r="E101">
         <v>36</v>
       </c>
-      <c r="D101">
-        <v>3</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="F101">
+        <v>9</v>
+      </c>
+      <c r="G101" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>71</v>
       </c>
       <c r="B102" t="s">
         <v>52</v>
       </c>
-      <c r="C102">
+      <c r="D102">
+        <v>3.7482275421641442</v>
+      </c>
+      <c r="E102">
         <v>90</v>
       </c>
-      <c r="D102">
-        <v>4</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="F102">
+        <v>20</v>
+      </c>
+      <c r="G102" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>72</v>
       </c>
       <c r="B103" t="s">
         <v>53</v>
       </c>
-      <c r="C103">
+      <c r="D103">
+        <v>1.8589610157990664</v>
+      </c>
+      <c r="E103">
         <v>97</v>
       </c>
-      <c r="D103">
-        <v>3</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="F103">
+        <v>24</v>
+      </c>
+      <c r="G103" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>73</v>
       </c>
       <c r="B104" t="s">
         <v>53</v>
       </c>
-      <c r="C104">
+      <c r="D104">
+        <v>1.9625042578816103</v>
+      </c>
+      <c r="E104">
         <v>45</v>
       </c>
-      <c r="D104">
-        <v>4</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="F104">
+        <v>9</v>
+      </c>
+      <c r="G104" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>74</v>
       </c>
       <c r="B105" t="s">
         <v>52</v>
       </c>
-      <c r="C105">
+      <c r="D105">
+        <v>1.1861548466491358</v>
+      </c>
+      <c r="E105">
         <v>73</v>
       </c>
-      <c r="D105">
-        <v>2</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="F105">
+        <v>17</v>
+      </c>
+      <c r="G105" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>75</v>
       </c>
       <c r="B106" t="s">
         <v>54</v>
       </c>
-      <c r="C106">
+      <c r="D106">
+        <v>2.3201782071835995</v>
+      </c>
+      <c r="E106">
         <v>13</v>
       </c>
-      <c r="D106">
-        <v>5</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="F106">
+        <v>3</v>
+      </c>
+      <c r="G106" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>76</v>
       </c>
       <c r="B107" t="s">
         <v>53</v>
       </c>
-      <c r="C107">
+      <c r="D107">
+        <v>3.951079372929938</v>
+      </c>
+      <c r="E107">
         <v>129</v>
       </c>
-      <c r="D107">
-        <v>3</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="F107">
+        <v>27</v>
+      </c>
+      <c r="G107" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>37</v>
       </c>
       <c r="B108" t="s">
         <v>55</v>
       </c>
-      <c r="C108">
+      <c r="D108">
+        <v>1.4857991260104448</v>
+      </c>
+      <c r="E108">
         <v>73</v>
       </c>
-      <c r="D108">
-        <v>3</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="F108">
+        <v>16</v>
+      </c>
+      <c r="G108" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>77</v>
       </c>
       <c r="B109" t="s">
         <v>56</v>
       </c>
-      <c r="C109">
+      <c r="D109">
+        <v>1.7674838527943049</v>
+      </c>
+      <c r="E109">
         <v>111</v>
       </c>
-      <c r="D109">
-        <v>2</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="F109">
+        <v>28</v>
+      </c>
+      <c r="G109" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>78</v>
       </c>
       <c r="B110" t="s">
         <v>55</v>
       </c>
-      <c r="C110">
+      <c r="D110">
+        <v>3.3831995428404769</v>
+      </c>
+      <c r="E110">
         <v>47</v>
       </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="F110">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>79</v>
       </c>
       <c r="B111" t="s">
         <v>57</v>
       </c>
-      <c r="C111">
+      <c r="D111">
+        <v>2.5574587331658161</v>
+      </c>
+      <c r="E111">
         <v>95</v>
       </c>
-      <c r="D111">
-        <v>2</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="F111">
+        <v>20</v>
+      </c>
+      <c r="G111" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>80</v>
       </c>
       <c r="B112" t="s">
         <v>58</v>
       </c>
-      <c r="C112">
+      <c r="D112">
+        <v>3.4612500467482032</v>
+      </c>
+      <c r="E112">
         <v>55</v>
       </c>
-      <c r="D112">
-        <v>3</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="F112">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>81</v>
       </c>
       <c r="B113" t="s">
         <v>59</v>
       </c>
-      <c r="C113">
+      <c r="D113">
+        <v>1.9550682338854708</v>
+      </c>
+      <c r="E113">
         <v>90</v>
       </c>
-      <c r="D113">
-        <v>4</v>
-      </c>
-      <c r="E113" t="s">
+      <c r="F113">
+        <v>22</v>
+      </c>
+      <c r="G113" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>82</v>
       </c>
       <c r="B114" t="s">
         <v>60</v>
       </c>
-      <c r="C114">
+      <c r="D114">
+        <v>2.2527512195079491</v>
+      </c>
+      <c r="E114">
         <v>89</v>
       </c>
-      <c r="D114">
-        <v>4</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="F114">
+        <v>19</v>
+      </c>
+      <c r="G114" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>83</v>
       </c>
       <c r="B115" t="s">
         <v>53</v>
       </c>
-      <c r="C115">
+      <c r="D115">
+        <v>3.0401176974525201</v>
+      </c>
+      <c r="E115">
         <v>87</v>
       </c>
-      <c r="D115">
-        <v>3</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="F115">
+        <v>21</v>
+      </c>
+      <c r="G115" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>84</v>
       </c>
       <c r="B116" t="s">
         <v>57</v>
       </c>
-      <c r="C116">
+      <c r="D116">
+        <v>3.2799541718850755</v>
+      </c>
+      <c r="E116">
         <v>51</v>
       </c>
-      <c r="D116">
-        <v>3</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="F116">
+        <v>11</v>
+      </c>
+      <c r="G116" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>85</v>
       </c>
       <c r="B117" t="s">
         <v>53</v>
       </c>
-      <c r="C117">
+      <c r="D117">
+        <v>1.8546686838666595</v>
+      </c>
+      <c r="E117">
         <v>108</v>
       </c>
-      <c r="D117">
-        <v>2</v>
-      </c>
-      <c r="E117" t="s">
+      <c r="F117">
+        <v>25</v>
+      </c>
+      <c r="G117" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>86</v>
       </c>
       <c r="B118" t="s">
         <v>56</v>
       </c>
-      <c r="C118">
+      <c r="D118">
+        <v>3.286601280047023</v>
+      </c>
+      <c r="E118">
         <v>94</v>
       </c>
-      <c r="D118">
-        <v>2</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="F118">
+        <v>22</v>
+      </c>
+      <c r="G118" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>87</v>
       </c>
       <c r="B119" t="s">
         <v>53</v>
       </c>
-      <c r="C119">
+      <c r="D119">
+        <v>3.5548586684387411</v>
+      </c>
+      <c r="E119">
         <v>84</v>
       </c>
-      <c r="D119">
-        <v>3</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="F119">
+        <v>18</v>
+      </c>
+      <c r="G119" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>88</v>
       </c>
       <c r="B120" t="s">
         <v>53</v>
       </c>
-      <c r="C120">
+      <c r="D120">
+        <v>3.0268188136653467</v>
+      </c>
+      <c r="E120">
         <v>128</v>
       </c>
-      <c r="D120">
-        <v>5</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="F120">
+        <v>32</v>
+      </c>
+      <c r="G120" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>89</v>
       </c>
       <c r="B121" t="s">
         <v>55</v>
       </c>
-      <c r="C121">
+      <c r="D121">
+        <v>1.5489244151790893</v>
+      </c>
+      <c r="E121">
         <v>75</v>
       </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="F121">
+        <v>16</v>
+      </c>
+      <c r="G121" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>90</v>
       </c>
       <c r="B122" t="s">
         <v>56</v>
       </c>
-      <c r="C122">
+      <c r="D122">
+        <v>3.0702375609324628</v>
+      </c>
+      <c r="E122">
         <v>87</v>
       </c>
-      <c r="D122">
-        <v>3</v>
-      </c>
-      <c r="E122" t="s">
+      <c r="F122">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>91</v>
       </c>
       <c r="B123" t="s">
         <v>55</v>
       </c>
-      <c r="C123">
+      <c r="D123">
+        <v>2.4132947916328682</v>
+      </c>
+      <c r="E123">
         <v>121</v>
       </c>
-      <c r="D123">
-        <v>2</v>
-      </c>
-      <c r="E123" t="s">
+      <c r="F123">
+        <v>30</v>
+      </c>
+      <c r="G123" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>92</v>
       </c>
       <c r="B124" t="s">
         <v>57</v>
       </c>
-      <c r="C124">
+      <c r="D124">
+        <v>2.9125892067099635</v>
+      </c>
+      <c r="E124">
         <v>25</v>
       </c>
-      <c r="D124">
-        <v>2</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="F124">
+        <v>6</v>
+      </c>
+      <c r="G124" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>93</v>
       </c>
       <c r="B125" t="s">
         <v>55</v>
       </c>
-      <c r="C125">
+      <c r="D125">
+        <v>3.8383882187965148</v>
+      </c>
+      <c r="E125">
         <v>81</v>
       </c>
-      <c r="D125">
-        <v>4</v>
-      </c>
-      <c r="E125" t="s">
+      <c r="F125">
+        <v>20</v>
+      </c>
+      <c r="G125" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>94</v>
       </c>
       <c r="B126" t="s">
         <v>59</v>
       </c>
-      <c r="C126">
+      <c r="D126">
+        <v>2.8836970389207615</v>
+      </c>
+      <c r="E126">
         <v>38</v>
       </c>
-      <c r="D126">
-        <v>1</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="F126">
+        <v>8</v>
+      </c>
+      <c r="G126" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>95</v>
       </c>
       <c r="B127" t="s">
         <v>60</v>
       </c>
-      <c r="C127">
+      <c r="D127">
+        <v>2.0662859070845179</v>
+      </c>
+      <c r="E127">
         <v>59</v>
       </c>
-      <c r="D127">
-        <v>3</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="F127">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>96</v>
       </c>
       <c r="B128" t="s">
         <v>53</v>
       </c>
-      <c r="C128">
+      <c r="D128">
+        <v>1.3865479051196177</v>
+      </c>
+      <c r="E128">
         <v>39</v>
       </c>
-      <c r="D128">
-        <v>4</v>
-      </c>
-      <c r="E128" t="s">
+      <c r="F128">
+        <v>8</v>
+      </c>
+      <c r="G128" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>97</v>
       </c>
       <c r="B129" t="s">
         <v>52</v>
       </c>
-      <c r="C129">
+      <c r="D129">
+        <v>3.4904463528372291</v>
+      </c>
+      <c r="E129">
         <v>93</v>
       </c>
-      <c r="D129">
-        <v>4</v>
-      </c>
-      <c r="E129" t="s">
+      <c r="F129">
+        <v>23</v>
+      </c>
+      <c r="G129" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>98</v>
       </c>
       <c r="B130" t="s">
         <v>53</v>
       </c>
-      <c r="C130">
+      <c r="D130">
+        <v>2.9836518703740431</v>
+      </c>
+      <c r="E130">
         <v>26</v>
       </c>
-      <c r="D130">
-        <v>2</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="F130">
+        <v>6</v>
+      </c>
+      <c r="G130" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>75</v>
       </c>
       <c r="B131" t="s">
         <v>56</v>
       </c>
-      <c r="C131">
+      <c r="D131">
+        <v>3.4419266643104161</v>
+      </c>
+      <c r="E131">
         <v>45</v>
       </c>
-      <c r="D131">
-        <v>1</v>
-      </c>
-      <c r="E131" t="s">
+      <c r="F131">
+        <v>10</v>
+      </c>
+      <c r="G131" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>76</v>
       </c>
       <c r="B132" t="s">
         <v>53</v>
       </c>
-      <c r="C132">
+      <c r="D132">
+        <v>3.3910650100493145</v>
+      </c>
+      <c r="E132">
         <v>18</v>
       </c>
-      <c r="D132">
+      <c r="F132">
         <v>4</v>
       </c>
-      <c r="E132" t="s">
+      <c r="G132" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>85</v>
       </c>
       <c r="B133" t="s">
         <v>57</v>
       </c>
-      <c r="C133">
+      <c r="D133">
+        <v>3.3371537552447617</v>
+      </c>
+      <c r="E133">
         <v>55</v>
       </c>
-      <c r="D133">
-        <v>2</v>
-      </c>
-      <c r="E133" t="s">
+      <c r="F133">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>37</v>
       </c>
       <c r="B134" t="s">
         <v>55</v>
       </c>
-      <c r="C134">
+      <c r="D134">
+        <v>1.4897217649431096</v>
+      </c>
+      <c r="E134">
         <v>89</v>
       </c>
-      <c r="D134">
-        <v>4</v>
-      </c>
-      <c r="E134" t="s">
+      <c r="F134">
+        <v>19</v>
+      </c>
+      <c r="G134" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>77</v>
       </c>
       <c r="B135" t="s">
         <v>54</v>
       </c>
-      <c r="C135">
+      <c r="D135">
+        <v>3.7746105673635824</v>
+      </c>
+      <c r="E135">
         <v>87</v>
       </c>
-      <c r="D135">
-        <v>5</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="F135">
+        <v>18</v>
+      </c>
+      <c r="G135" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>78</v>
       </c>
       <c r="B136" t="s">
         <v>55</v>
       </c>
-      <c r="C136">
+      <c r="D136">
+        <v>1.1099935687937184</v>
+      </c>
+      <c r="E136">
         <v>64</v>
       </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-      <c r="E136" t="s">
+      <c r="F136">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>79</v>
       </c>
       <c r="B137" t="s">
         <v>57</v>
       </c>
-      <c r="C137">
+      <c r="D137">
+        <v>1.1621291577327799</v>
+      </c>
+      <c r="E137">
         <v>104</v>
       </c>
-      <c r="D137">
-        <v>2</v>
-      </c>
-      <c r="E137" t="s">
+      <c r="F137">
+        <v>23</v>
+      </c>
+      <c r="G137" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>80</v>
       </c>
       <c r="B138" t="s">
         <v>58</v>
       </c>
-      <c r="C138">
+      <c r="D138">
+        <v>3.0708049672270454</v>
+      </c>
+      <c r="E138">
         <v>59</v>
       </c>
-      <c r="D138">
-        <v>3</v>
-      </c>
-      <c r="E138" t="s">
+      <c r="F138">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>81</v>
       </c>
       <c r="B139" t="s">
         <v>59</v>
       </c>
-      <c r="C139">
+      <c r="D139">
+        <v>2.5286941725900198</v>
+      </c>
+      <c r="E139">
         <v>101</v>
       </c>
-      <c r="D139">
-        <v>4</v>
-      </c>
-      <c r="E139" t="s">
+      <c r="F139">
+        <v>22</v>
+      </c>
+      <c r="G139" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>82</v>
       </c>
       <c r="B140" t="s">
         <v>60</v>
       </c>
-      <c r="C140">
+      <c r="D140">
+        <v>2.8981198929336136</v>
+      </c>
+      <c r="E140">
         <v>33</v>
       </c>
-      <c r="D140">
-        <v>2</v>
-      </c>
-      <c r="E140" t="s">
+      <c r="F140">
+        <v>7</v>
+      </c>
+      <c r="G140" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>83</v>
       </c>
       <c r="B141" t="s">
         <v>53</v>
       </c>
-      <c r="C141">
+      <c r="D141">
+        <v>1.3796783064793798</v>
+      </c>
+      <c r="E141">
         <v>58</v>
       </c>
-      <c r="D141">
-        <v>1</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="F141">
+        <v>13</v>
+      </c>
+      <c r="G141" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>84</v>
       </c>
       <c r="B142" t="s">
         <v>57</v>
       </c>
-      <c r="C142">
+      <c r="D142">
+        <v>2.9022247040471885</v>
+      </c>
+      <c r="E142">
         <v>42</v>
       </c>
-      <c r="D142">
-        <v>4</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="F142">
+        <v>9</v>
+      </c>
+      <c r="G142" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>85</v>
       </c>
       <c r="B143" t="s">
         <v>53</v>
       </c>
-      <c r="C143">
+      <c r="D143">
+        <v>3.6084821112996019</v>
+      </c>
+      <c r="E143">
         <v>130</v>
       </c>
-      <c r="D143">
-        <v>3</v>
-      </c>
-      <c r="E143" t="s">
+      <c r="F143">
+        <v>27</v>
+      </c>
+      <c r="G143" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>86</v>
       </c>
       <c r="B144" t="s">
         <v>56</v>
       </c>
-      <c r="C144">
+      <c r="D144">
+        <v>2.670306703287578</v>
+      </c>
+      <c r="E144">
         <v>98</v>
       </c>
-      <c r="D144">
-        <v>2</v>
-      </c>
-      <c r="E144" t="s">
+      <c r="F144">
+        <v>21</v>
+      </c>
+      <c r="G144" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>87</v>
       </c>
       <c r="B145" t="s">
         <v>53</v>
       </c>
-      <c r="C145">
+      <c r="D145">
+        <v>3.6258804412744614</v>
+      </c>
+      <c r="E145">
         <v>124</v>
       </c>
-      <c r="D145">
-        <v>2</v>
-      </c>
-      <c r="E145" t="s">
+      <c r="F145">
+        <v>26</v>
+      </c>
+      <c r="G145" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>88</v>
       </c>
       <c r="B146" t="s">
         <v>53</v>
       </c>
-      <c r="C146">
+      <c r="D146">
+        <v>1.5014950362719879</v>
+      </c>
+      <c r="E146">
         <v>12</v>
       </c>
-      <c r="D146">
+      <c r="F146">
         <v>3</v>
       </c>
-      <c r="E146" t="s">
+      <c r="G146" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>89</v>
       </c>
       <c r="B147" t="s">
         <v>55</v>
       </c>
-      <c r="C147">
+      <c r="D147">
+        <v>1.8523277403018064</v>
+      </c>
+      <c r="E147">
         <v>65</v>
       </c>
-      <c r="D147">
-        <v>3</v>
-      </c>
-      <c r="E147" t="s">
+      <c r="F147">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>90</v>
       </c>
       <c r="B148" t="s">
         <v>56</v>
       </c>
-      <c r="C148">
+      <c r="D148">
+        <v>3.6385522990129742</v>
+      </c>
+      <c r="E148">
         <v>13</v>
       </c>
-      <c r="D148">
-        <v>2</v>
-      </c>
-      <c r="E148" t="s">
+      <c r="F148">
+        <v>3</v>
+      </c>
+      <c r="G148" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>91</v>
       </c>
       <c r="B149" t="s">
         <v>55</v>
       </c>
-      <c r="C149">
+      <c r="D149">
+        <v>3.8391899462685162</v>
+      </c>
+      <c r="E149">
         <v>28</v>
       </c>
-      <c r="D149">
-        <v>3</v>
-      </c>
-      <c r="E149" t="s">
+      <c r="F149">
+        <v>6</v>
+      </c>
+      <c r="G149" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>92</v>
       </c>
       <c r="B150" t="s">
         <v>57</v>
       </c>
-      <c r="C150">
+      <c r="D150">
+        <v>3.9751573896768968</v>
+      </c>
+      <c r="E150">
         <v>47</v>
       </c>
-      <c r="D150">
-        <v>5</v>
-      </c>
-      <c r="E150" t="s">
+      <c r="F150">
+        <v>10</v>
+      </c>
+      <c r="G150" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>93</v>
       </c>
       <c r="B151" t="s">
         <v>53</v>
       </c>
-      <c r="C151">
+      <c r="D151">
+        <v>1.6365246392240189</v>
+      </c>
+      <c r="E151">
         <v>121</v>
       </c>
-      <c r="D151">
-        <v>4</v>
-      </c>
-      <c r="E151" t="s">
+      <c r="F151">
+        <v>30</v>
+      </c>
+      <c r="G151" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>94</v>
       </c>
       <c r="B152" t="s">
         <v>55</v>
       </c>
-      <c r="C152">
+      <c r="D152">
+        <v>1.7676799173307371</v>
+      </c>
+      <c r="E152">
         <v>88</v>
       </c>
-      <c r="D152">
-        <v>2</v>
-      </c>
-      <c r="E152" t="s">
+      <c r="F152">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>95</v>
       </c>
       <c r="B153" t="s">
         <v>60</v>
       </c>
-      <c r="C153">
+      <c r="D153">
+        <v>1.3024191941333287</v>
+      </c>
+      <c r="E153">
         <v>112</v>
       </c>
-      <c r="D153">
-        <v>2</v>
-      </c>
-      <c r="E153" t="s">
+      <c r="F153">
+        <v>26</v>
+      </c>
+      <c r="G153" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>96</v>
       </c>
       <c r="B154" t="s">
         <v>53</v>
       </c>
-      <c r="C154">
+      <c r="D154">
+        <v>2.1504701806539313</v>
+      </c>
+      <c r="E154">
         <v>123</v>
       </c>
-      <c r="D154">
-        <v>4</v>
-      </c>
-      <c r="E154" t="s">
+      <c r="F154">
+        <v>25</v>
+      </c>
+      <c r="G154" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>97</v>
       </c>
       <c r="B155" t="s">
         <v>52</v>
       </c>
-      <c r="C155">
+      <c r="D155">
+        <v>2.032981614841785</v>
+      </c>
+      <c r="E155">
         <v>42</v>
       </c>
-      <c r="D155">
-        <v>3</v>
-      </c>
-      <c r="E155" t="s">
+      <c r="F155">
+        <v>9</v>
+      </c>
+      <c r="G155" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>98</v>
       </c>
       <c r="B156" t="s">
         <v>53</v>
       </c>
-      <c r="C156">
+      <c r="D156">
+        <v>3.2884102740213916</v>
+      </c>
+      <c r="E156">
         <v>35</v>
       </c>
-      <c r="D156">
-        <v>1</v>
-      </c>
-      <c r="E156" t="s">
+      <c r="F156">
+        <v>8</v>
+      </c>
+      <c r="G156" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>75</v>
       </c>
       <c r="B157" t="s">
         <v>54</v>
       </c>
-      <c r="C157">
+      <c r="D157">
+        <v>2.1023931657200507</v>
+      </c>
+      <c r="E157">
         <v>119</v>
       </c>
-      <c r="D157">
-        <v>3</v>
-      </c>
-      <c r="E157" t="s">
+      <c r="F157">
+        <v>29</v>
+      </c>
+      <c r="G157" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>76</v>
       </c>
       <c r="B158" t="s">
         <v>53</v>
       </c>
-      <c r="C158">
+      <c r="D158">
+        <v>3.2815737385341701</v>
+      </c>
+      <c r="E158">
         <v>94</v>
       </c>
-      <c r="D158">
-        <v>2</v>
-      </c>
-      <c r="E158" t="s">
+      <c r="F158">
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>85</v>
       </c>
       <c r="B159" t="s">
         <v>57</v>
       </c>
-      <c r="C159">
+      <c r="D159">
+        <v>1.7441350919159344</v>
+      </c>
+      <c r="E159">
         <v>112</v>
       </c>
-      <c r="D159">
-        <v>1</v>
-      </c>
-      <c r="E159" t="s">
+      <c r="F159">
+        <v>27</v>
+      </c>
+      <c r="G159" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>37</v>
       </c>
       <c r="B160" t="s">
         <v>55</v>
       </c>
-      <c r="C160">
+      <c r="D160">
+        <v>2.8936337855894321</v>
+      </c>
+      <c r="E160">
         <v>125</v>
       </c>
-      <c r="D160">
-        <v>2</v>
-      </c>
-      <c r="E160" t="s">
+      <c r="F160">
+        <v>30</v>
+      </c>
+      <c r="G160" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>77</v>
       </c>
       <c r="B161" t="s">
         <v>56</v>
       </c>
-      <c r="C161">
+      <c r="D161">
+        <v>2.7415535654608498</v>
+      </c>
+      <c r="E161">
         <v>72</v>
       </c>
-      <c r="D161">
-        <v>3</v>
-      </c>
-      <c r="E161" t="s">
+      <c r="F161">
+        <v>15</v>
+      </c>
+      <c r="G161" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>78</v>
       </c>
       <c r="B162" t="s">
         <v>55</v>
       </c>
-      <c r="C162">
+      <c r="D162">
+        <v>1.639236548779224</v>
+      </c>
+      <c r="E162">
         <v>126</v>
       </c>
-      <c r="D162">
-        <v>5</v>
-      </c>
-      <c r="E162" t="s">
+      <c r="F162">
+        <v>29</v>
+      </c>
+      <c r="G162" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>79</v>
       </c>
       <c r="B163" t="s">
         <v>57</v>
       </c>
-      <c r="C163">
+      <c r="D163">
+        <v>3.6130481115587165</v>
+      </c>
+      <c r="E163">
         <v>61</v>
       </c>
-      <c r="D163">
-        <v>4</v>
-      </c>
-      <c r="E163" t="s">
+      <c r="F163">
+        <v>13</v>
+      </c>
+      <c r="G163" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>80</v>
       </c>
       <c r="B164" t="s">
         <v>58</v>
       </c>
-      <c r="C164">
+      <c r="D164">
+        <v>3.4260293613326569</v>
+      </c>
+      <c r="E164">
         <v>28</v>
       </c>
-      <c r="D164">
-        <v>3</v>
-      </c>
-      <c r="E164" t="s">
+      <c r="F164">
+        <v>6</v>
+      </c>
+      <c r="G164" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>81</v>
       </c>
       <c r="B165" t="s">
         <v>59</v>
       </c>
-      <c r="C165">
+      <c r="D165">
+        <v>1.1386454106485902</v>
+      </c>
+      <c r="E165">
         <v>88</v>
       </c>
-      <c r="D165">
-        <v>1</v>
-      </c>
-      <c r="E165" t="s">
+      <c r="F165">
+        <v>18</v>
+      </c>
+      <c r="G165" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>82</v>
       </c>
       <c r="B166" t="s">
         <v>60</v>
       </c>
-      <c r="C166">
+      <c r="D166">
+        <v>1.2073503460182065</v>
+      </c>
+      <c r="E166">
         <v>51</v>
       </c>
-      <c r="D166">
-        <v>2</v>
-      </c>
-      <c r="E166" t="s">
+      <c r="F166">
+        <v>13</v>
+      </c>
+      <c r="G166" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>83</v>
       </c>
       <c r="B167" t="s">
         <v>53</v>
       </c>
-      <c r="C167">
+      <c r="D167">
+        <v>3.1755976826541121</v>
+      </c>
+      <c r="E167">
         <v>86</v>
       </c>
-      <c r="D167">
-        <v>1</v>
-      </c>
-      <c r="E167" t="s">
+      <c r="F167">
+        <v>18</v>
+      </c>
+      <c r="G167" t="s">
         <v>68</v>
       </c>
     </row>

--- a/updated_categories_reviews_corrected.xlsx
+++ b/updated_categories_reviews_corrected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avrahamma\Documents\School\ML_Course\Project_4\stramlit_app\streamlit_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ED7E9A-A3EB-49F9-A2A0-D97CED0DAE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8CF5FE-98E7-41DC-8021-88DE85CE1B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,10 +335,10 @@
     <t>rate_average</t>
   </si>
   <si>
-    <t>num_of_rates</t>
-  </si>
-  <si>
     <t>negative_rates_past_30_days</t>
+  </si>
+  <si>
+    <t>num_of_negativ_rates</t>
   </si>
 </sst>
 </file>
@@ -683,7 +683,7 @@
   <dimension ref="A1:G167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -703,10 +703,10 @@
         <v>99</v>
       </c>
       <c r="E1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" t="s">
         <v>100</v>
-      </c>
-      <c r="F1" t="s">
-        <v>101</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
